--- a/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
+++ b/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
@@ -642,8 +642,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
+    <t>在后台“商店设置-显示设置-首页搜索的关键字”中配置内容，如“奶粉,童车”；在首页点击“热搜”关键字，会自动根据关键字进行搜索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击积分商城中的商品，跳转到商品详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“首页”、“产品详情”已经可以在后台进行配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经优化，勾选时显示，不勾选时不显示；没有抢购商品时，不显示限时抢购区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页“热门评论”将不会显示“下架”或“放入回收站”的评论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文章列表中显示缩略图；在门店动态中显示缩略图、点击更多跳转到门店动态文章列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>部分解决</t>
+  </si>
+  <si>
+    <t>后台商品中设置“自定义小标题”后，在商品详情中会显示商品小标题；否则不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面：登录页面可以用手机号/邮箱/用户名登录，右侧设置一个广告图与注册页面一样；登录可第三方登录（QQ、微博、支付宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算页面：支付方式的货到付款、交行招行支付端口和配送方式的上门自提目前还没有接好（货到付款和上门自提是同样的道理：可以根据下单地区判断是否出现货到付款和上门自提）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具发票：保存发票历史记录，会员下次购买时，自动填写发票抬头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员分</t>
     </r>
     <r>
       <rPr>
@@ -652,7 +702,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -663,7 +713,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>个等级，等级按照成长值积累，签到</t>
     </r>
     <r>
       <rPr>
@@ -672,7 +722,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -683,7 +733,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>评价</t>
     </r>
     <r>
       <rPr>
@@ -692,7 +742,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -703,7 +753,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>购买商品都可以积累成长值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看等级说明、如可快速升级都没有对应的链接地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料未完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心：样式显示不正确。（会员中心样式按照前端美工页面调）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在“开始签到”没有生成成长值；正常情况下应该生成成长值，并且限制每天只能签到一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员级别和成长值的对应关系在后台应该有设置（此页面还没有，待添加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>评价商品可以上传图片写文字（图片最多设置上传</t>
     </r>
     <r>
       <rPr>
@@ -712,7 +788,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -723,7 +799,77 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>张，评价要经过后台审核）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单可以查看物流信息；我的订单可以申请退换货；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加仓库或者编辑仓库，通过添加或者编辑仓库功能，选择相应仓库管理的发货区域，选择管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理，对多地仓库进行添加，编辑与删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无属性商品多仓库库存添加与管理，在添加或者编辑商品时会出一个多仓库库存选项卡，进行仓库库存的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要词语标签是否为“页面底部导航”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出为excel表格已经实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经实现,可以按照“缺货商品名”进行检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何完善商品属性待研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可减运费在什么地方设置?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货的逻辑问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在会员等级中可以设置会员的等级积分与会员级别的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车页面下面（我的收藏）取消掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式中可以根据“红包”与“积分”来进行付款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“运费可减”：按购买商品数量，扣减运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台功能判断手机</t>
     </r>
     <r>
       <rPr>
@@ -732,7 +878,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -743,7 +889,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>电脑订单</t>
     </r>
     <r>
       <rPr>
@@ -752,7 +898,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
+      <t>IP</t>
     </r>
     <r>
       <rPr>
@@ -763,73 +909,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段这样的名词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在后台“商店设置-显示设置-首页搜索的关键字”中配置内容，如“奶粉,童车”；在首页点击“热搜”关键字，会自动根据关键字进行搜索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击积分商城中的商品，跳转到商品详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“首页”、“产品详情”已经可以在后台进行配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经优化，勾选时显示，不勾选时不显示；没有抢购商品时，不显示限时抢购区。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页“热门评论”将不会显示“下架”或“放入回收站”的评论。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在文章列表中显示缩略图；在门店动态中显示缩略图、点击更多跳转到门店动态文章列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-  </si>
-  <si>
-    <t>部分解决</t>
-  </si>
-  <si>
-    <t>后台商品中设置“自定义小标题”后，在商品详情中会显示商品小标题；否则不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面：登录页面可以用手机号/邮箱/用户名登录，右侧设置一个广告图与注册页面一样；登录可第三方登录（QQ、微博、支付宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面：支付方式的货到付款、交行招行支付端口和配送方式的上门自提目前还没有接好（货到付款和上门自提是同样的道理：可以根据下单地区判断是否出现货到付款和上门自提）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开具发票：保存发票历史记录，会员下次购买时，自动填写发票抬头。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
+      <t>归属地和手机号归属地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关分类：显示后台商品分类中的本商品所属分类的同一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关品牌：显示本商品所属的同类品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了又买：显示其他会员最近购买过的商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过调试，发现此问题需要升级服务器的php版本至5.3以上，现在php的版本为5.2.17；但是ecshop只能兼容5.2的版本，升级到5.3以后很多地方会报错。此问题可以放在后面进行处理。
+已经升级php版本至5.4.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出结果后，在什么地方体现？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -839,7 +944,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>个等级，等级按照成长值积累，签到</t>
+      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
     </r>
     <r>
       <rPr>
@@ -848,7 +953,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -859,7 +964,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>评价</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -868,7 +973,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -879,33 +984,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>购买商品都可以积累成长值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看等级说明、如可快速升级都没有对应的链接地址。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人资料未完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心：样式显示不正确。（会员中心样式按照前端美工页面调）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在“开始签到”没有生成成长值；正常情况下应该生成成长值，并且限制每天只能签到一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员级别和成长值的对应关系在后台应该有设置（此页面还没有，待添加）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>评价商品可以上传图片写文字（图片最多设置上传</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -914,7 +993,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -925,81 +1004,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>张，评价要经过后台审核）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单可以查看物流信息；我的订单可以申请退换货；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加仓库或者编辑仓库，通过添加或者编辑仓库功能，选择相应仓库管理的发货区域，选择管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理，对多地仓库进行添加，编辑与删除操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无属性商品多仓库库存添加与管理，在添加或者编辑商品时会出一个多仓库库存选项卡，进行仓库库存的管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要词语标签是否为“页面底部导航”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出为excel表格已经实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经实现,可以按照“缺货商品名”进行检索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何完善商品属性待研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么api可以查询到ip归属地，系统中是否已经存在？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可减运费在什么地方设置?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退换货的逻辑问题？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会员等级中可以设置会员的等级积分与会员级别的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车页面下面（我的收藏）取消掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式中可以根据“红包”与“积分”来进行付款。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“运费可减”：按购买商品数量，扣减运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>后台功能判断手机</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -1008,7 +1013,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -1019,7 +1024,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>电脑订单</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -1028,7 +1033,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>IP</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1039,25 +1044,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>归属地和手机号归属地</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关分类：显示后台商品分类中的本商品所属分类的同一级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关品牌：显示本商品所属的同类品牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买了又买：显示其他会员最近购买过的商品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过调试，发现此问题需要升级服务器的php版本至5.3以上，现在php的版本为5.2.17；但是ecshop只能兼容5.2的版本，升级到5.3以后很多地方会报错。此问题可以放在后面进行处理。
-已经升级php版本至5.4.26</t>
+      <t>段、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段这样的名词</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1623,9 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="13.5"/>
@@ -1660,7 +1668,7 @@
         <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5">
@@ -1686,7 +1694,7 @@
         <v>42276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>88</v>
@@ -1704,7 +1712,7 @@
         <v>42278</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>90</v>
@@ -1722,10 +1730,10 @@
         <v>42279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5">
@@ -1736,11 +1744,14 @@
       <c r="C6" s="12">
         <v>42287</v>
       </c>
+      <c r="D6" s="12">
+        <v>42285</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1766,10 +1777,10 @@
         <v>42281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1802,10 +1813,10 @@
         <v>42281</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="38.25">
@@ -1828,10 +1839,10 @@
         <v>42287</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27">
@@ -1846,10 +1857,10 @@
         <v>42281</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27">
@@ -1884,10 +1895,10 @@
         <v>42283</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5">
@@ -1978,7 +1989,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="12">
         <v>42287</v>
@@ -1987,7 +1998,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="12">
         <v>42287</v>
@@ -2005,7 +2016,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="16"/>
       <c r="B30" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="12">
         <v>42287</v>
@@ -2062,7 +2073,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="12">
         <v>42308</v>
@@ -2073,7 +2084,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="12">
         <v>42301</v>
@@ -2109,7 +2120,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="12">
         <v>42287</v>
@@ -2160,7 +2171,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="12">
         <v>42301</v>
@@ -2169,7 +2180,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="16"/>
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="12">
         <v>42287</v>
@@ -2180,7 +2191,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="12">
         <v>42294</v>
@@ -2189,7 +2200,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="12">
         <v>42294</v>
@@ -2198,7 +2209,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="12">
         <v>42294</v>
@@ -2207,7 +2218,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="12">
         <v>42294</v>
@@ -2216,7 +2227,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="16"/>
       <c r="B53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="12">
         <v>42294</v>
@@ -2225,13 +2236,13 @@
     <row r="54" spans="1:6">
       <c r="A54" s="16"/>
       <c r="B54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="12">
         <v>42294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2257,7 +2268,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="12">
         <v>42294</v>
@@ -2275,13 +2286,13 @@
     <row r="59" spans="1:6">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="12">
         <v>42301</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25">
@@ -2298,7 +2309,7 @@
         <v>42279</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2306,7 +2317,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="12">
         <v>42294</v>
@@ -2315,7 +2326,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="12">
         <v>42294</v>
@@ -2324,7 +2335,7 @@
     <row r="63" spans="1:6" ht="25.5">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="12">
         <v>42287</v>
@@ -2351,13 +2362,13 @@
     <row r="66" spans="1:6">
       <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="12">
         <v>42301</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25">
@@ -2365,13 +2376,13 @@
         <v>73</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" s="12">
         <v>42301</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27">
@@ -2379,13 +2390,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C68" s="12">
         <v>42287</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2399,7 +2410,7 @@
         <v>42301</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25">
@@ -2433,7 +2444,7 @@
         <v>42308</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="27">
@@ -2447,7 +2458,7 @@
         <v>42301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2519,7 +2530,7 @@
         <v>42308</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2531,7 +2542,7 @@
         <v>42308</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2575,11 +2586,6 @@
   </sheetData>
   <autoFilter ref="A1:G85"/>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A84"/>
@@ -2589,6 +2595,11 @@
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
+++ b/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,9 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
-  </si>
-  <si>
     <t>后台功能-缺货登记列表可按照缺货商品名字搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可减运费在什么地方设置?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退换货的逻辑问题？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,6 +1059,22 @@
       </rPr>
       <t>段这样的名词</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化等级时间格式为“Y-m-d H:i:s”;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台编辑商品的时候可以输入“可减运费金额”项；提交订单的时候未自动计算运费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台可以设置买几送几；其它待完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1632,8 +1641,8 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="13.5"/>
@@ -1650,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1659,24 +1668,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5">
       <c r="A2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12">
         <v>42294</v>
@@ -1694,16 +1703,16 @@
         <v>42276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12">
         <v>42287</v>
@@ -1712,10 +1721,10 @@
         <v>42278</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27">
@@ -1730,10 +1739,10 @@
         <v>42279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5">
@@ -1748,10 +1757,10 @@
         <v>42285</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1765,10 +1774,10 @@
     </row>
     <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12">
         <v>42287</v>
@@ -1777,10 +1786,10 @@
         <v>42281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1804,7 +1813,7 @@
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12">
         <v>42287</v>
@@ -1813,18 +1822,18 @@
         <v>42281</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="38.25">
       <c r="A12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="12">
         <v>42287</v>
@@ -1839,10 +1848,10 @@
         <v>42287</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27">
@@ -1857,16 +1866,16 @@
         <v>42281</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12">
         <v>42287</v>
@@ -1874,10 +1883,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12">
         <v>42287</v>
@@ -1895,16 +1904,16 @@
         <v>42283</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="12">
         <v>42287</v>
@@ -1912,7 +1921,7 @@
     </row>
     <row r="19" spans="1:6" ht="40.5">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1944,7 +1953,7 @@
     <row r="22" spans="1:6" ht="27">
       <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12">
         <v>42287</v>
@@ -1953,7 +1962,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="12">
         <v>42287</v>
@@ -1967,6 +1976,12 @@
       <c r="C24" s="12">
         <v>42287</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="27">
       <c r="A25" s="16"/>
@@ -1989,7 +2004,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="12">
         <v>42287</v>
@@ -1998,7 +2013,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="12">
         <v>42287</v>
@@ -2016,7 +2031,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="16"/>
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="12">
         <v>42287</v>
@@ -2025,7 +2040,7 @@
     <row r="31" spans="1:6" ht="25.5">
       <c r="A31" s="16"/>
       <c r="B31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="12">
         <v>42301</v>
@@ -2033,7 +2048,7 @@
     </row>
     <row r="32" spans="1:6" ht="40.5">
       <c r="A32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
@@ -2050,7 +2065,7 @@
     </row>
     <row r="34" spans="1:3" ht="40.5">
       <c r="A34" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
@@ -2070,10 +2085,10 @@
     </row>
     <row r="36" spans="1:3" ht="27">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="12">
         <v>42308</v>
@@ -2081,10 +2096,10 @@
     </row>
     <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="12">
         <v>42301</v>
@@ -2120,7 +2135,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="12">
         <v>42287</v>
@@ -2147,7 +2162,7 @@
     <row r="44" spans="1:3" ht="25.5">
       <c r="A44" s="16"/>
       <c r="B44" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="12">
         <v>42301</v>
@@ -2171,7 +2186,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" s="12">
         <v>42301</v>
@@ -2180,7 +2195,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="16"/>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="12">
         <v>42287</v>
@@ -2188,10 +2203,10 @@
     </row>
     <row r="49" spans="1:6" ht="14.25">
       <c r="A49" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="12">
         <v>42294</v>
@@ -2200,7 +2215,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="12">
         <v>42294</v>
@@ -2209,7 +2224,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="12">
         <v>42294</v>
@@ -2218,7 +2233,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="12">
         <v>42294</v>
@@ -2227,7 +2242,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="16"/>
       <c r="B53" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="12">
         <v>42294</v>
@@ -2236,28 +2251,31 @@
     <row r="54" spans="1:6">
       <c r="A54" s="16"/>
       <c r="B54" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="12">
         <v>42294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="12">
         <v>42294</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="38.25">
       <c r="A56" s="16"/>
       <c r="B56" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="12">
         <v>42301</v>
@@ -2265,10 +2283,10 @@
     </row>
     <row r="57" spans="1:6" ht="14.25">
       <c r="A57" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="12">
         <v>42294</v>
@@ -2286,21 +2304,21 @@
     <row r="59" spans="1:6">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="12">
         <v>42301</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="12">
         <v>42287</v>
@@ -2309,15 +2327,15 @@
         <v>42279</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="12">
         <v>42294</v>
@@ -2326,7 +2344,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="12">
         <v>42294</v>
@@ -2335,7 +2353,7 @@
     <row r="63" spans="1:6" ht="25.5">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="12">
         <v>42287</v>
@@ -2344,7 +2362,7 @@
     <row r="64" spans="1:6" ht="25.5">
       <c r="A64" s="17"/>
       <c r="B64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="12">
         <v>42287</v>
@@ -2353,7 +2371,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C65" s="12">
         <v>42287</v>
@@ -2362,63 +2380,72 @@
     <row r="66" spans="1:6">
       <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="12">
         <v>42301</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F66" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="12">
         <v>42301</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="12">
         <v>42287</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" s="12">
         <v>42301</v>
       </c>
+      <c r="D69" s="12">
+        <v>42287</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="12">
         <v>42301</v>
@@ -2426,10 +2453,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="12">
         <v>42301</v>
@@ -2438,35 +2465,35 @@
     <row r="72" spans="1:6">
       <c r="A72" s="16"/>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="12">
         <v>42308</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="12">
         <v>42301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="12">
         <v>42308</v>
@@ -2475,7 +2502,7 @@
     <row r="75" spans="1:6">
       <c r="A75" s="16"/>
       <c r="B75" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="12">
         <v>42308</v>
@@ -2484,7 +2511,7 @@
     <row r="76" spans="1:6" ht="54">
       <c r="A76" s="16"/>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="12">
         <v>42308</v>
@@ -2492,10 +2519,10 @@
     </row>
     <row r="77" spans="1:6" ht="67.5">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="12">
         <v>42308</v>
@@ -2503,10 +2530,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" s="12">
         <v>42301</v>
@@ -2515,7 +2542,7 @@
     <row r="79" spans="1:6" ht="27">
       <c r="A79" s="16"/>
       <c r="B79" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="12">
         <v>42308</v>
@@ -2524,31 +2551,31 @@
     <row r="80" spans="1:6">
       <c r="A80" s="16"/>
       <c r="B80" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="12">
         <v>42308</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="12">
         <v>42308</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="16"/>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="12">
         <v>42308</v>
@@ -2557,7 +2584,7 @@
     <row r="83" spans="1:6" ht="27">
       <c r="A83" s="16"/>
       <c r="B83" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="12">
         <v>42308</v>
@@ -2566,7 +2593,7 @@
     <row r="84" spans="1:6" ht="27">
       <c r="A84" s="16"/>
       <c r="B84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="12">
         <v>42301</v>
@@ -2574,10 +2601,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="C85" s="15">
         <v>42322</v>
@@ -2586,6 +2613,11 @@
   </sheetData>
   <autoFilter ref="A1:G85"/>
   <mergeCells count="14">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A84"/>
@@ -2595,11 +2627,6 @@
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
+++ b/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询出结果后，在什么地方体现？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1062,10 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优化等级时间格式为“Y-m-d H:i:s”;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1075,6 +1067,49 @@
   </si>
   <si>
     <t>后台可以设置买几送几；其它待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台商品信息编辑页面可以输入“拼音码”，但是还不能根据商品名称自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能忽略，直接完善会员中心的样式即可，其它修改项中包含此功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+  </si>
+  <si>
+    <t>可以区分手机号与邮箱注册，邮箱注册中“获取邮箱验证码”待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用邮箱注册的用户可以用邮箱登录；用手机号码注册的用户可以用手机号码登录；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要增加“自提点-区域映射关系”与“货到付款-区域映射关系”；配置的时候映射到区域的哪一级别比较好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化“登记时间”格式为“Y-m-d H:i:s”;在后台处理缺货后，在会员中心会显示“已到货”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无评价商品入口，页面是否需要自己添加？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出结果后，在什么地方体现？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1640,9 +1675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="13.5"/>
@@ -1690,6 +1725,12 @@
       <c r="C2" s="12">
         <v>42294</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16"/>
@@ -1771,6 +1812,12 @@
       <c r="C7" s="12">
         <v>42287</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="16" t="s">
@@ -1980,7 +2027,7 @@
         <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
@@ -2000,6 +2047,15 @@
       <c r="C26" s="12">
         <v>42287</v>
       </c>
+      <c r="D26" s="12">
+        <v>42289</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="16"/>
@@ -2057,13 +2113,13 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:6">
       <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40.5">
+    <row r="34" spans="1:6" ht="40.5">
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
@@ -2073,8 +2129,17 @@
       <c r="C34" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="12">
+        <v>42289</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>20</v>
@@ -2083,7 +2148,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27">
+    <row r="36" spans="1:6" ht="27">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -2093,8 +2158,14 @@
       <c r="C36" s="12">
         <v>42308</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.5">
+      <c r="E36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27">
       <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
@@ -2104,8 +2175,11 @@
       <c r="C37" s="12">
         <v>42301</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="F37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -2114,7 +2188,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:6">
       <c r="A39" s="16"/>
       <c r="B39" s="8" t="s">
         <v>23</v>
@@ -2123,7 +2197,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:6">
       <c r="A40" s="16"/>
       <c r="B40" s="8" t="s">
         <v>24</v>
@@ -2132,7 +2206,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:6">
       <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
         <v>125</v>
@@ -2140,8 +2214,17 @@
       <c r="C41" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="12">
+        <v>42290</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="16"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -2150,7 +2233,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:6">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
         <v>26</v>
@@ -2159,7 +2242,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" s="16"/>
       <c r="B44" s="8" t="s">
         <v>64</v>
@@ -2168,7 +2251,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:6">
       <c r="A45" s="16"/>
       <c r="B45" s="8" t="s">
         <v>27</v>
@@ -2177,13 +2260,13 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:6">
       <c r="A46" s="16"/>
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:6">
       <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
         <v>126</v>
@@ -2192,7 +2275,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:6">
       <c r="A48" s="16"/>
       <c r="B48" s="8" t="s">
         <v>105</v>
@@ -2229,6 +2312,15 @@
       <c r="C51" s="12">
         <v>42294</v>
       </c>
+      <c r="D51" s="12">
+        <v>42289</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="16"/>
@@ -2260,7 +2352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="27">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
         <v>66</v>
@@ -2268,8 +2360,14 @@
       <c r="C55" s="12">
         <v>42294</v>
       </c>
+      <c r="D55" s="12">
+        <v>42287</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="38.25">
@@ -2291,6 +2389,9 @@
       <c r="C57" s="12">
         <v>42294</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="27">
       <c r="A58" s="16"/>
@@ -2371,7 +2472,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" s="12">
         <v>42287</v>
@@ -2389,7 +2490,7 @@
         <v>101</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25">
@@ -2403,7 +2504,7 @@
         <v>42301</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27">
@@ -2411,7 +2512,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="12">
         <v>42287</v>
@@ -2613,11 +2714,6 @@
   </sheetData>
   <autoFilter ref="A1:G85"/>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A84"/>
@@ -2627,6 +2723,11 @@
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
+++ b/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$85</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,9 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看了又看：显示内容同“猜你喜欢”。</t>
-  </si>
-  <si>
     <t>详情页产品详情上下可批量加广告图（批量加入广告图应该是可以按照类别、品牌或者产品加入，一个产品上下加入广告图不止一个，可设置多个，因为做活动时，有些产品可能详情页首部就可添加几个广告图）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,18 +814,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重要词语标签是否为“页面底部导航”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出为excel表格已经实现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +823,6 @@
   </si>
   <si>
     <t>如何完善商品属性待研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退换货的逻辑问题？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,6 +905,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台编辑商品的时候可以输入“可减运费金额”项；提交订单的时候未自动计算运费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台可以设置买几送几；其它待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台商品信息编辑页面可以输入“拼音码”，但是还不能根据商品名称自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能忽略，直接完善会员中心的样式即可，其它修改项中包含此功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+  </si>
+  <si>
+    <t>可以区分手机号与邮箱注册，邮箱注册中“获取邮箱验证码”待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用邮箱注册的用户可以用邮箱登录；用手机号码注册的用户可以用手机号码登录；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化“登记时间”格式为“Y-m-d H:i:s”;在后台处理缺货后，在会员中心会显示“已到货”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要增加“自提点-区域映射关系”与“货到付款-区域映射关系”；配置的时候映射到区域的哪一级别比较好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出结果后，在什么地方体现？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要词语标签是否为“页面底部导航”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货的逻辑问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无评价商品入口，页面是否需要自己添加？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为其它会员购买过的“同类”产品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了又看：显示内容同“猜你喜欢”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -933,7 +1009,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -942,7 +1018,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -962,7 +1038,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -982,7 +1058,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -1002,7 +1078,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1022,7 +1098,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1033,83 +1109,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>段这样的名词</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台编辑商品的时候可以输入“可减运费金额”项；提交订单的时候未自动计算运费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台可以设置买几送几；其它待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在后台商品信息编辑页面可以输入“拼音码”，但是还不能根据商品名称自动生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此功能忽略，直接完善会员中心的样式即可，其它修改项中包含此功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址已经加入，在文章列表中可以维护</t>
-  </si>
-  <si>
-    <t>可以区分手机号与邮箱注册，邮箱注册中“获取邮箱验证码”待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用邮箱注册的用户可以用邮箱登录；用手机号码注册的用户可以用手机号码登录；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要增加“自提点-区域映射关系”与“货到付款-区域映射关系”；配置的时候映射到区域的哪一级别比较好？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址已经加入，在文章列表中可以维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化“登记时间”格式为“Y-m-d H:i:s”;在后台处理缺货后，在会员中心会显示“已到货”；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无评价商品入口，页面是否需要自己添加？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询出结果后，在什么地方体现？</t>
+    <t>商品详情页“看了又看”与“猜你喜欢”内容已经设置为一致。“同品牌”与“同价位”标签页内容已经完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页“猜你喜欢”与详情页“猜你喜欢”都是随机显示的内容 ，尚未读第三方网站本地浏览记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经可以显示同类品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,11 +1686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="13.5"/>
@@ -1688,13 +1701,14 @@
     <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="72.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="26.75" style="1"/>
+    <col min="7" max="7" width="38.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="26.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1703,36 +1717,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.5">
+        <v>139</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12">
         <v>42294</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1744,16 +1761,16 @@
         <v>42276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12">
         <v>42287</v>
@@ -1762,13 +1779,13 @@
         <v>42278</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -1780,13 +1797,13 @@
         <v>42279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.5">
       <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -1798,13 +1815,13 @@
         <v>42285</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -1813,18 +1830,18 @@
         <v>42287</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="12">
         <v>42287</v>
@@ -1833,13 +1850,13 @@
         <v>42281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1848,7 +1865,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:8" ht="27">
       <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1857,10 +1874,10 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:8" ht="27">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12">
         <v>42287</v>
@@ -1869,24 +1886,33 @@
         <v>42281</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="38.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="38.25">
       <c r="A12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25">
+      <c r="D12" s="12">
+        <v>42291</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -1895,13 +1921,13 @@
         <v>42287</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1913,27 +1939,27 @@
         <v>42281</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="12">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="12">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C16" s="12">
         <v>42287</v>
@@ -1951,16 +1977,16 @@
         <v>42283</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="12">
         <v>42287</v>
@@ -1968,7 +1994,7 @@
     </row>
     <row r="19" spans="1:6" ht="40.5">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -1979,7 +2005,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -2000,7 +2026,7 @@
     <row r="22" spans="1:6" ht="27">
       <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12">
         <v>42287</v>
@@ -2009,7 +2035,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="12">
         <v>42287</v>
@@ -2024,10 +2050,10 @@
         <v>42287</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
@@ -2051,16 +2077,16 @@
         <v>42289</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" s="12">
         <v>42287</v>
@@ -2069,34 +2095,52 @@
     <row r="28" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C28" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="12">
+        <v>42289</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27">
       <c r="A29" s="16"/>
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C29" s="12">
         <v>42287</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="16"/>
       <c r="B30" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30" s="12">
         <v>42287</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="25.5">
       <c r="A31" s="16"/>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="12">
         <v>42301</v>
@@ -2104,27 +2148,27 @@
     </row>
     <row r="32" spans="1:6" ht="40.5">
       <c r="A32" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="40.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.5">
       <c r="A34" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="12">
         <v>42287</v>
@@ -2133,83 +2177,83 @@
         <v>42289</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12">
         <v>42308</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.5">
       <c r="A37" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="12">
         <v>42301</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="16"/>
       <c r="B39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="16"/>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41" s="12">
         <v>42287</v>
@@ -2218,96 +2262,96 @@
         <v>42290</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="16"/>
       <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:7" ht="25.5">
       <c r="A44" s="16"/>
       <c r="B44" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="16"/>
       <c r="B45" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="16"/>
       <c r="B46" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C47" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="16"/>
       <c r="B48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="12">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25">
+      <c r="A49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C48" s="12">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C49" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" s="16"/>
       <c r="B51" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="12">
         <v>42294</v>
@@ -2316,46 +2360,46 @@
         <v>42289</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="16"/>
       <c r="B52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="16"/>
       <c r="B53" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="16"/>
       <c r="B54" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="12">
         <v>42294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="27">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="12">
         <v>42294</v>
@@ -2364,62 +2408,62 @@
         <v>42287</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="38.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="38.25">
       <c r="A56" s="16"/>
       <c r="B56" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="12">
         <v>42294</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="27">
+    <row r="58" spans="1:7" ht="27">
       <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="12">
         <v>42301</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25">
+      <c r="G59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="12">
         <v>42287</v>
@@ -2428,105 +2472,105 @@
         <v>42279</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="25.5">
+    <row r="63" spans="1:7" ht="25.5">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="25.5">
+    <row r="64" spans="1:7" ht="25.5">
       <c r="A64" s="17"/>
       <c r="B64" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C65" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C66" s="12">
         <v>42301</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C67" s="12">
         <v>42301</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="27">
+      <c r="G67" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="27">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C68" s="12">
         <v>42287</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="12">
         <v>42301</v>
@@ -2535,185 +2579,192 @@
         <v>42287</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" s="16"/>
       <c r="B72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="12">
         <v>42308</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="40.5">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="12">
         <v>42301</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="16"/>
       <c r="B75" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="54">
+    <row r="76" spans="1:7" ht="54">
       <c r="A76" s="16"/>
       <c r="B76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="67.5">
+    <row r="77" spans="1:7" ht="67.5">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7">
       <c r="A78" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27">
+    <row r="79" spans="1:7" ht="27">
       <c r="A79" s="16"/>
       <c r="B79" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7" ht="27">
       <c r="A80" s="16"/>
       <c r="B80" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="12">
         <v>42308</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="12">
         <v>42308</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="16"/>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="27">
+    <row r="83" spans="1:7" ht="27">
       <c r="A83" s="16"/>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="27">
+    <row r="84" spans="1:7" ht="27">
       <c r="A84" s="16"/>
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7">
       <c r="A85" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="C85" s="15">
         <v>42322</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G85"/>
+  <autoFilter ref="A1:H85">
+    <filterColumn colId="6"/>
+  </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A84"/>
@@ -2723,11 +2774,6 @@
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
+++ b/data/database/商城开发时间进度计划表-20150928-1512-郭平.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,9 +66,6 @@
     </r>
   </si>
   <si>
-    <t>首页顶部：头部第三方登录（微博登录连接出错）</t>
-  </si>
-  <si>
     <t>我的订单（如果没有登录点击直接要求登录才能查看订单，如果已经登录直接查看会员中心订单列表）</t>
   </si>
   <si>
@@ -130,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品详情页：“配送至”字段不能根据“地址分级”进行选择。选择配送地址时，没有和对应到仓库并获取库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品详情页“免运费说明”：增加链接，链接到特定的地址（文章）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,24 +149,6 @@
   <si>
     <t>招商银行与交通银行支付接入</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车修改数量是，相应修改小计金额与合计金额。</t>
-  </si>
-  <si>
-    <t>购物车全选与取消全选待完善。取消全选是，全选的勾没有取消。</t>
-  </si>
-  <si>
-    <t>“设置默认收货地址”后，下次购买时，应该自动填上用户设定的默认收货地址。</t>
-  </si>
-  <si>
-    <t>“选择收货地址”的地方应该提供“选择其它收货地址”的链接、或添加新地址的链接</t>
-  </si>
-  <si>
-    <t>“货到付款”，根据配送地址来判断是否显示“货到付款”。</t>
-  </si>
-  <si>
-    <t>打印订单、打印快递单。</t>
   </si>
   <si>
     <t>会员中心-我的订单可以取消、删除还可以按照条件筛选（订单可以按照订单时间、订单状态、订单号/商品名称来查找订单）；</t>
@@ -381,8 +356,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>后台功能</t>
+    <t>商品列表（商品详情）中“促销价”中复选框勾上后，才在“限时抢购”中显示，否则不显示。如果无“限时抢购”商品、则不显示“限时抢购”区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首页底部应该读取（后台管理</t>
     </r>
     <r>
       <rPr>
@@ -392,6 +371,178 @@
         <family val="2"/>
       </rPr>
       <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栏目底部导航））请截图。（同样道理，每个页面都有一个底部文字的，后台目前已经有这个功能，但是前端没有读取出来）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页检索、微博登录、我的订单、首页广告图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.123121.com/muying增加（头部，底部，右侧导航栏[购物车....客服...,具体参考内页]）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台详情页编辑产品可设置分地区包邮（后台每个产品编辑-可选择全国和各个省份包邮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送积分是每个产品设置的，比如一个产品100元，可以按照100分累积，购买产品就可以有100个积分，此外积分可抵消金额也在后台设置，比如100积分可抵消2元，金额是可以自定义的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧广告图：后台无配置页面（待增加），固定广告图宽度，高度不固定。在商品分类中增加“左侧广告图”上传入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“上门自提”，现在系统不能判断在什么地方提货，需要增加收货地址和提货地址的对应管理。如果后台没有映射关系，则不显示“上门自提”的付款方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货登记，如果管理人员在后台登记已到货，在会员中心显示该商品的状态为“已到货“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包的使用规则（按照商品使用，如本商品后台设置是可以使用红包抵消现金，如一个会员有1个十元红包，但是购买的商品只限制使用5元红包，呢么消费时候选中十元红包，呢么也只能抵消5元，并且该红包作废，因为消费读取的是红包的序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品评价、订单取消与删除、订单检索、订单物流查看、退换货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理、分仓库管理库存、运费可减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员等级、会员中心样式、个人资料修改、成长值、缺货登记、红包使用规则、会员可检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单归属地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别属性配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款、招行、交行、购物车、收货地址、上门自提、打印订单快递单、发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台缺货检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货列表检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售明细检索、明细导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示抢购显示逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员索要礼物、礼物赠送、索要与赠送逻辑判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分店店长数据检索权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台板式、商品类别与品牌链接地址、商品详情页售后保障常见问题配置、浏览器兼容、图片延迟加载、商品分类多条件检索、重要词语标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城手机版(电脑版争取在2015-10-31前完成，剩余时间开发手机版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告图的背景色，将“图片说明”字段配置为“#e8c125”类似的格式就可以了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在广告编辑页面增加“描述”字段，可以配置首页底部广告栏的背景色，如“#e8c125”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品可选择颜色尺码，每个颜色尺码对应的库存价格不同（产品不同颜色尺码都对应一个库存和一个产品价格，后台每个产品都对应填写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>积分商城中点击商品时跳转到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>404</t>
     </r>
     <r>
       <rPr>
@@ -402,16 +553,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>退换货列表可按照退换货单号、订单号、快递单号、状态搜索</t>
-    </r>
-  </si>
-  <si>
-    <t>商品列表（商品详情）中“促销价”中复选框勾上后，才在“限时抢购”中显示，否则不显示。如果无“限时抢购”商品、则不显示“限时抢购”区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>首页底部应该读取（后台管理</t>
+      <t>页面。（积分商城中的商品可以用积分</t>
     </r>
     <r>
       <rPr>
@@ -420,183 +562,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栏目底部导航））请截图。（同样道理，每个页面都有一个底部文字的，后台目前已经有这个功能，但是前端没有读取出来）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页检索、微博登录、我的订单、首页广告图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.123121.com/muying增加（头部，底部，右侧导航栏[购物车....客服...,具体参考内页]）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台详情页编辑产品可设置分地区包邮（后台每个产品编辑-可选择全国和各个省份包邮）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送积分是每个产品设置的，比如一个产品100元，可以按照100分累积，购买产品就可以有100个积分，此外积分可抵消金额也在后台设置，比如100积分可抵消2元，金额是可以自定义的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧广告图：后台无配置页面（待增加），固定广告图宽度，高度不固定。在商品分类中增加“左侧广告图”上传入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“上门自提”，现在系统不能判断在什么地方提货，需要增加收货地址和提货地址的对应管理。如果后台没有映射关系，则不显示“上门自提”的付款方式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺货登记，如果管理人员在后台登记已到货，在会员中心显示该商品的状态为“已到货“</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包的使用规则（按照商品使用，如本商品后台设置是可以使用红包抵消现金，如一个会员有1个十元红包，但是购买的商品只限制使用5元红包，呢么消费时候选中十元红包，呢么也只能抵消5元，并且该红包作废，因为消费读取的是红包的序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评价、订单取消与删除、订单检索、订单物流查看、退换货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理、分仓库管理库存、运费可减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员等级、会员中心样式、个人资料修改、成长值、缺货登记、红包使用规则、会员可检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单归属地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别属性配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款、招行、交行、购物车、收货地址、上门自提、打印订单快递单、发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台缺货检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退换货列表检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售明细检索、明细导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示抢购显示逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员索要礼物、礼物赠送、索要与赠送逻辑判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分店店长数据检索权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台板式、商品类别与品牌链接地址、商品详情页售后保障常见问题配置、浏览器兼容、图片延迟加载、商品分类多条件检索、重要词语标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城手机版(电脑版争取在2015-10-31前完成，剩余时间开发手机版)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告图的背景色，将“图片说明”字段配置为“#e8c125”类似的格式就可以了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在广告编辑页面增加“描述”字段，可以配置首页底部广告栏的背景色，如“#e8c125”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品可选择颜色尺码，每个颜色尺码对应的库存价格不同（产品不同颜色尺码都对应一个库存和一个产品价格，后台每个产品都对应填写）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>积分商城中点击商品时跳转到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>404</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -607,7 +573,67 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>页面。（积分商城中的商品可以用积分</t>
+      <t>现金进行购买）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有属性商品多仓库库存添加与管理，在添加或者编辑属性库存时会出一个列多仓库库存的下拉选项，进行仓库库存的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台“商店设置-显示设置-首页搜索的关键字”中配置内容，如“奶粉,童车”；在首页点击“热搜”关键字，会自动根据关键字进行搜索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击积分商城中的商品，跳转到商品详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“首页”、“产品详情”已经可以在后台进行配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经优化，勾选时显示，不勾选时不显示；没有抢购商品时，不显示限时抢购区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页“热门评论”将不会显示“下架”或“放入回收站”的评论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文章列表中显示缩略图；在门店动态中显示缩略图、点击更多跳转到门店动态文章列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>部分解决</t>
+  </si>
+  <si>
+    <t>后台商品中设置“自定义小标题”后，在商品详情中会显示商品小标题；否则不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面：登录页面可以用手机号/邮箱/用户名登录，右侧设置一个广告图与注册页面一样；登录可第三方登录（QQ、微博、支付宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算页面：支付方式的货到付款、交行招行支付端口和配送方式的上门自提目前还没有接好（货到付款和上门自提是同样的道理：可以根据下单地区判断是否出现货到付款和上门自提）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具发票：保存发票历史记录，会员下次购买时，自动填写发票抬头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员分</t>
     </r>
     <r>
       <rPr>
@@ -616,7 +642,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>+</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -627,67 +653,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>现金进行购买）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有属性商品多仓库库存添加与管理，在添加或者编辑属性库存时会出一个列多仓库库存的下拉选项，进行仓库库存的管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在后台“商店设置-显示设置-首页搜索的关键字”中配置内容，如“奶粉,童车”；在首页点击“热搜”关键字，会自动根据关键字进行搜索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击积分商城中的商品，跳转到商品详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“首页”、“产品详情”已经可以在后台进行配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经优化，勾选时显示，不勾选时不显示；没有抢购商品时，不显示限时抢购区。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页“热门评论”将不会显示“下架”或“放入回收站”的评论。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在文章列表中显示缩略图；在门店动态中显示缩略图、点击更多跳转到门店动态文章列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-  </si>
-  <si>
-    <t>部分解决</t>
-  </si>
-  <si>
-    <t>后台商品中设置“自定义小标题”后，在商品详情中会显示商品小标题；否则不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面：登录页面可以用手机号/邮箱/用户名登录，右侧设置一个广告图与注册页面一样；登录可第三方登录（QQ、微博、支付宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面：支付方式的货到付款、交行招行支付端口和配送方式的上门自提目前还没有接好（货到付款和上门自提是同样的道理：可以根据下单地区判断是否出现货到付款和上门自提）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开具发票：保存发票历史记录，会员下次购买时，自动填写发票抬头。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员分</t>
+      <t>个等级，等级按照成长值积累，签到</t>
     </r>
     <r>
       <rPr>
@@ -696,7 +662,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -707,7 +673,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>个等级，等级按照成长值积累，签到</t>
+      <t>评价</t>
     </r>
     <r>
       <rPr>
@@ -727,7 +693,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>评价</t>
+      <t>购买商品都可以积累成长值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看等级说明、如可快速升级都没有对应的链接地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人资料未完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心：样式显示不正确。（会员中心样式按照前端美工页面调）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在“开始签到”没有生成成长值；正常情况下应该生成成长值，并且限制每天只能签到一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>评价商品可以上传图片写文字（图片最多设置上传</t>
     </r>
     <r>
       <rPr>
@@ -736,7 +724,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -747,33 +735,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>购买商品都可以积累成长值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看等级说明、如可快速升级都没有对应的链接地址。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个人资料未完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心：样式显示不正确。（会员中心样式按照前端美工页面调）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在“开始签到”没有生成成长值；正常情况下应该生成成长值，并且限制每天只能签到一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员级别和成长值的对应关系在后台应该有设置（此页面还没有，待添加）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>评价商品可以上传图片写文字（图片最多设置上传</t>
+      <t>张，评价要经过后台审核）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单可以查看物流信息；我的订单可以申请退换货；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加仓库或者编辑仓库，通过添加或者编辑仓库功能，选择相应仓库管理的发货区域，选择管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理，对多地仓库进行添加，编辑与删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无属性商品多仓库库存添加与管理，在添加或者编辑商品时会出一个多仓库库存选项卡，进行仓库库存的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出为excel表格已经实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经实现,可以按照“缺货商品名”进行检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何完善商品属性待研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在会员等级中可以设置会员的等级积分与会员级别的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车页面下面（我的收藏）取消掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式中可以根据“红包”与“积分”来进行付款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“运费可减”：按购买商品数量，扣减运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台功能判断手机</t>
     </r>
     <r>
       <rPr>
@@ -782,7 +794,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -793,57 +805,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>张，评价要经过后台审核）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单可以查看物流信息；我的订单可以申请退换货；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加仓库或者编辑仓库，通过添加或者编辑仓库功能，选择相应仓库管理的发货区域，选择管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理，对多地仓库进行添加，编辑与删除操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无属性商品多仓库库存添加与管理，在添加或者编辑商品时会出一个多仓库库存选项卡，进行仓库库存的管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出为excel表格已经实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经实现,可以按照“缺货商品名”进行检索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何完善商品属性待研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在会员等级中可以设置会员的等级积分与会员级别的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车页面下面（我的收藏）取消掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式中可以根据“红包”与“积分”来进行付款。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“运费可减”：按购买商品数量，扣减运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>后台功能判断手机</t>
+      <t>电脑订单</t>
     </r>
     <r>
       <rPr>
@@ -852,7 +814,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>IP</t>
     </r>
     <r>
       <rPr>
@@ -863,7 +825,105 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>电脑订单</t>
+      <t>归属地和手机号归属地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关分类：显示后台商品分类中的本商品所属分类的同一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关品牌：显示本商品所属的同类品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了又买：显示其他会员最近购买过的商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过调试，发现此问题需要升级服务器的php版本至5.3以上，现在php的版本为5.2.17；但是ecshop只能兼容5.2的版本，升级到5.3以后很多地方会报错。此问题可以放在后面进行处理。
+已经升级php版本至5.4.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台编辑商品的时候可以输入“可减运费金额”项；提交订单的时候未自动计算运费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台可以设置买几送几；其它待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台商品信息编辑页面可以输入“拼音码”，但是还不能根据商品名称自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能忽略，直接完善会员中心的样式即可，其它修改项中包含此功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+  </si>
+  <si>
+    <t>可以区分手机号与邮箱注册，邮箱注册中“获取邮箱验证码”待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用邮箱注册的用户可以用邮箱登录；用手机号码注册的用户可以用手机号码登录；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址已经加入，在文章列表中可以维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化“登记时间”格式为“Y-m-d H:i:s”;在后台处理缺货后，在会员中心会显示“已到货”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要增加“自提点-区域映射关系”与“货到付款-区域映射关系”；配置的时候映射到区域的哪一级别比较好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询出结果后，在什么地方体现？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要词语标签是否为“页面底部导航”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货的逻辑问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了又看：显示内容同“猜你喜欢”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
     </r>
     <r>
       <rPr>
@@ -872,7 +932,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>IP</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -883,113 +943,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>归属地和手机号归属地</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关分类：显示后台商品分类中的本商品所属分类的同一级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关品牌：显示本商品所属的同类品牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买了又买：显示其他会员最近购买过的商品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过调试，发现此问题需要升级服务器的php版本至5.3以上，现在php的版本为5.2.17；但是ecshop只能兼容5.2的版本，升级到5.3以后很多地方会报错。此问题可以放在后面进行处理。
-已经升级php版本至5.4.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情页面用户如果选择某个区域，会显示无货或者有货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台编辑商品的时候可以输入“可减运费金额”项；提交订单的时候未自动计算运费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台可以设置买几送几；其它待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在后台商品信息编辑页面可以输入“拼音码”，但是还不能根据商品名称自动生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此功能忽略，直接完善会员中心的样式即可，其它修改项中包含此功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址已经加入，在文章列表中可以维护</t>
-  </si>
-  <si>
-    <t>可以区分手机号与邮箱注册，邮箱注册中“获取邮箱验证码”待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用邮箱注册的用户可以用邮箱登录；用手机号码注册的用户可以用手机号码登录；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址已经加入，在文章列表中可以维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化“登记时间”格式为“Y-m-d H:i:s”;在后台处理缺货后，在会员中心会显示“已到货”；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要增加“自提点-区域映射关系”与“货到付款-区域映射关系”；配置的时候映射到区域的哪一级别比较好？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询出结果后，在什么地方体现？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时抢购的时间设置没有问题；限时的抢购商品也是全部时间段内的商品，而不是当天的，问题在哪里？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用JS代码的意思是什么？是否为每个商品都可以独立配置“售后保障与常见问题”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要词语标签是否为“页面底部导航”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退换货的逻辑问题？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无评价商品入口，页面是否需要自己添加？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为其它会员购买过的“同类”产品？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看了又看：显示内容同“猜你喜欢”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每个类别里面编辑进入要有一个属性名称，然后添加名称下的内容，如奶粉类别，可添加属性名称为段位，名称下的内容有</t>
+      <t>段、</t>
     </r>
     <r>
       <rPr>
@@ -998,7 +952,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1018,7 +972,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1038,7 +992,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -1058,7 +1012,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1078,7 +1032,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1089,7 +1043,113 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段、</t>
+      <t>段这样的名词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页“看了又看”与“猜你喜欢”内容已经设置为一致。“同品牌”与“同价位”标签页内容已经完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页“猜你喜欢”与详情页“猜你喜欢”都是随机显示的内容 ，尚未读第三方网站本地浏览记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经可以显示同类品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页顶部：头部第三方登录（微博登录连接出错）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html页面中的全部分类页需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求可以选择“中国”和多选“省份”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考 “促销管理- 超值礼包 ”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页：“配送至”字段不能根据“地址分级”进行选择。选择配送地址时，没有和对应到仓库并获取库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为其它会员购买过的“同类”产品？取消此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页的市场价取消掉。后台设置也不要显示这个字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在全部商城显示的都是同一个广告图。现在需要根据类别等属性配置，后台具体配置在什么地方，请发一个例子给我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车修改数量是，相应修改小计金额与合计金额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车全选与取消全选待完善。取消全选是，全选的勾没有取消。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“设置默认收货地址”后，下次购买时，应该自动填上用户设定的默认收货地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“选择收货地址”的地方应该提供“选择其它收货地址”的链接、或添加新地址的链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“货到付款”，根据配送地址来判断是否显示“货到付款”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印订单、打印快递单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有之前的插件？请提供一个订单格式给我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到与评价记多少分，请固定分值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员级别和成长值的对应关系在后台应该有设置（此页面还没有，待添加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无评价商品入口，页面是否需要自己添加？能否提供一个参考的样式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能已经存在，在商品列表中已经存在，参考链接http://localhost:8086/baadmin/goods.php?act=product_storeroom&amp;goods_id=22001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表里面建议也增加这个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台订单详情里面显示即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台功能</t>
     </r>
     <r>
       <rPr>
@@ -1098,7 +1158,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1109,20 +1169,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>段这样的名词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页“看了又看”与“猜你喜欢”内容已经设置为一致。“同品牌”与“同价位”标签页内容已经完善。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页“猜你喜欢”与详情页“猜你喜欢”都是随机显示的内容 ，尚未读第三方网站本地浏览记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经可以显示同类品牌</t>
+      <t>退换货列表可按照退换货单号、订单号、快递单号、状态搜索</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年只能要一次。后台也需要添加管理界面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1259,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1269,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,6 +1383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1688,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="13.5"/>
@@ -1708,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1717,36 +1780,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12">
         <v>42294</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1761,16 +1824,16 @@
         <v>42276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12">
         <v>42287</v>
@@ -1779,10 +1842,10 @@
         <v>42278</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -1797,16 +1860,16 @@
         <v>42279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5">
       <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="C6" s="12">
         <v>42287</v>
@@ -1815,33 +1878,33 @@
         <v>42285</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12">
         <v>42287</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C8" s="12">
         <v>42287</v>
@@ -1850,15 +1913,15 @@
         <v>42281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="16"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12">
@@ -1873,11 +1936,14 @@
       <c r="C10" s="12">
         <v>42287</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="27">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12">
         <v>42287</v>
@@ -1886,18 +1952,18 @@
         <v>42281</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12">
         <v>42287</v>
@@ -1906,31 +1972,31 @@
         <v>42291</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="12">
         <v>42287</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27">
       <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12">
         <v>42287</v>
@@ -1939,16 +2005,16 @@
         <v>42281</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C15" s="12">
         <v>42287</v>
@@ -1956,19 +2022,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="12">
         <v>42287</v>
@@ -1977,98 +2046,101 @@
         <v>42283</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C18" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="40.5">
+    <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12">
+        <v>42287</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27">
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C23" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27">
+    <row r="24" spans="1:7" ht="27">
       <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="12">
         <v>42287</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="C25" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="12">
         <v>42287</v>
@@ -2077,25 +2149,25 @@
         <v>42289</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C27" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="16"/>
       <c r="B28" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C28" s="12">
         <v>42287</v>
@@ -2104,71 +2176,77 @@
         <v>42289</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="16"/>
       <c r="B29" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C29" s="12">
         <v>42287</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="16"/>
-      <c r="B30" s="8" t="s">
-        <v>126</v>
+      <c r="B30" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="C30" s="12">
         <v>42287</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="25.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5">
       <c r="A31" s="16"/>
       <c r="B31" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C31" s="12">
         <v>42301</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="40.5">
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5">
       <c r="A32" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="12">
         <v>42294</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="27">
       <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="40.5">
       <c r="A34" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="12">
         <v>42287</v>
@@ -2177,16 +2255,16 @@
         <v>42289</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="12">
         <v>42287</v>
@@ -2194,39 +2272,39 @@
     </row>
     <row r="36" spans="1:7" ht="27">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C36" s="12">
         <v>42308</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5">
       <c r="A37" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C37" s="12">
         <v>42301</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="12">
         <v>42301</v>
@@ -2235,7 +2313,7 @@
     <row r="39" spans="1:7">
       <c r="A39" s="16"/>
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="C39" s="12">
         <v>42287</v>
@@ -2244,7 +2322,7 @@
     <row r="40" spans="1:7">
       <c r="A40" s="16"/>
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="C40" s="12">
         <v>42287</v>
@@ -2253,7 +2331,7 @@
     <row r="41" spans="1:7">
       <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C41" s="12">
         <v>42287</v>
@@ -2262,16 +2340,16 @@
         <v>42290</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="16"/>
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C42" s="12">
         <v>42287</v>
@@ -2280,7 +2358,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="C43" s="12">
         <v>42287</v>
@@ -2289,7 +2367,7 @@
     <row r="44" spans="1:7" ht="25.5">
       <c r="A44" s="16"/>
       <c r="B44" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C44" s="12">
         <v>42301</v>
@@ -2298,22 +2376,25 @@
     <row r="45" spans="1:7">
       <c r="A45" s="16"/>
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C45" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="27">
       <c r="A46" s="16"/>
       <c r="B46" s="8" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C47" s="12">
         <v>42301</v>
@@ -2322,7 +2403,7 @@
     <row r="48" spans="1:7">
       <c r="A48" s="16"/>
       <c r="B48" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C48" s="12">
         <v>42287</v>
@@ -2330,19 +2411,22 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C49" s="12">
         <v>42294</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C50" s="12">
         <v>42294</v>
@@ -2351,7 +2435,7 @@
     <row r="51" spans="1:7">
       <c r="A51" s="16"/>
       <c r="B51" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C51" s="12">
         <v>42294</v>
@@ -2360,16 +2444,16 @@
         <v>42289</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="16"/>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C52" s="12">
         <v>42294</v>
@@ -2378,7 +2462,7 @@
     <row r="53" spans="1:7">
       <c r="A53" s="16"/>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C53" s="12">
         <v>42294</v>
@@ -2387,19 +2471,19 @@
     <row r="54" spans="1:7">
       <c r="A54" s="16"/>
       <c r="B54" s="8" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C54" s="12">
         <v>42294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="27">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C55" s="12">
         <v>42294</v>
@@ -2408,39 +2492,39 @@
         <v>42287</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="38.25">
       <c r="A56" s="16"/>
       <c r="B56" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C56" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
+    <row r="57" spans="1:7" ht="27">
       <c r="A57" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C57" s="12">
         <v>42294</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27">
       <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C58" s="12">
         <v>42301</v>
@@ -2449,21 +2533,21 @@
     <row r="59" spans="1:7">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C59" s="12">
         <v>42301</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C60" s="12">
         <v>42287</v>
@@ -2472,15 +2556,15 @@
         <v>42279</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C61" s="12">
         <v>42294</v>
@@ -2489,7 +2573,7 @@
     <row r="62" spans="1:7">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C62" s="12">
         <v>42294</v>
@@ -2498,79 +2582,88 @@
     <row r="63" spans="1:7" ht="25.5">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C63" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5">
+    <row r="64" spans="1:7" ht="54">
       <c r="A64" s="17"/>
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C64" s="12">
         <v>42287</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="G64" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C65" s="12">
         <v>42287</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C66" s="12">
         <v>42301</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25">
+        <v>118</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C67" s="12">
         <v>42301</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="27">
+        <v>130</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="27">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C68" s="12">
         <v>42287</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C69" s="12">
         <v>42301</v>
@@ -2579,148 +2672,151 @@
         <v>42287</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C70" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C71" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="16"/>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C72" s="12">
         <v>42308</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="40.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="40.5">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C73" s="12">
         <v>42301</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C74" s="12">
         <v>42308</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="16"/>
-      <c r="B75" s="6" t="s">
-        <v>34</v>
+      <c r="B75" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C75" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="54">
+    <row r="76" spans="1:8" ht="54">
       <c r="A76" s="16"/>
       <c r="B76" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C76" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="67.5">
+    <row r="77" spans="1:8" ht="67.5">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C77" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C78" s="12">
         <v>42301</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27">
+    <row r="79" spans="1:8" ht="27">
       <c r="A79" s="16"/>
-      <c r="B79" s="6" t="s">
-        <v>38</v>
+      <c r="B79" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C79" s="12">
         <v>42308</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:8" ht="27">
       <c r="A80" s="16"/>
       <c r="B80" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C80" s="12">
         <v>42308</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C81" s="12">
         <v>42308</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="16"/>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C82" s="12">
         <v>42308</v>
@@ -2729,7 +2825,7 @@
     <row r="83" spans="1:7" ht="27">
       <c r="A83" s="16"/>
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C83" s="12">
         <v>42308</v>
@@ -2738,7 +2834,7 @@
     <row r="84" spans="1:7" ht="27">
       <c r="A84" s="16"/>
       <c r="B84" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C84" s="12">
         <v>42301</v>
@@ -2746,10 +2842,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C85" s="15">
         <v>42322</v>
@@ -2760,11 +2856,6 @@
     <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A84"/>
@@ -2774,6 +2865,11 @@
     <mergeCell ref="A37:A48"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
